--- a/fhir/ValueSet-locationNodal-V2.xlsx
+++ b/fhir/ValueSet-locationNodal-V2.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-locationNodal-V2.xlsx
+++ b/fhir/ValueSet-locationNodal-V2.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-locationNodal-V2.xlsx
+++ b/fhir/ValueSet-locationNodal-V2.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-locationNodal-V2.xlsx
+++ b/fhir/ValueSet-locationNodal-V2.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-locationNodal-V2.xlsx
+++ b/fhir/ValueSet-locationNodal-V2.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
